--- a/cmim.xlsx
+++ b/cmim.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32000" windowHeight="14550" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="32000" windowHeight="14550" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -351,10 +351,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -970,11 +970,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="556154680"/>
-        <c:axId val="556155856"/>
+        <c:axId val="397301568"/>
+        <c:axId val="397307840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="556154680"/>
+        <c:axId val="397301568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1020,7 +1020,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1087,12 +1086,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556155856"/>
+        <c:crossAx val="397307840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="556155856"/>
+        <c:axId val="397307840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -1139,7 +1138,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1206,7 +1204,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556154680"/>
+        <c:crossAx val="397301568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1220,7 +1218,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3187,62 +3184,62 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:G10"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>0.41</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>0.01</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>0.27</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>0.02</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>0.02</v>
       </c>
     </row>
@@ -3250,22 +3247,22 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>0.38</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>0.01</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>0.25</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>0.01</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>0.24</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>0.01</v>
       </c>
     </row>
@@ -3273,22 +3270,22 @@
       <c r="A5">
         <v>7</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>0.36</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>0.01</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>0.23</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>0.01</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>0.2</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3296,22 +3293,22 @@
       <c r="A6">
         <v>11</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>0.36</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>0.01</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>0.23</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>0.01</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>0.2</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3319,22 +3316,22 @@
       <c r="A7">
         <v>17</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>0.35</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>0.01</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>0.22</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>0.2</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3342,22 +3339,22 @@
       <c r="A8">
         <v>23</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>0.34</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>0.01</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>0.22</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>0.19</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3365,22 +3362,22 @@
       <c r="A9">
         <v>31</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>0.35</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>0.01</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>0.22</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>0</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>0.19</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3388,22 +3385,22 @@
       <c r="A10">
         <v>43</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>0.36</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>0.01</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>0.22</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>0.19</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3411,23 +3408,37 @@
       <c r="A11">
         <v>53</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>0.36</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>0.01</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>0.23</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>0</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>0.19</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B12" s="1">
+        <f>AVERAGE(B3:B11)</f>
+        <v>0.36333333333333329</v>
+      </c>
+      <c r="D12" s="1">
+        <f>AVERAGE(D3:D11)</f>
+        <v>0.23222222222222222</v>
+      </c>
+      <c r="F12" s="1">
+        <f>AVERAGE(F3:F11)</f>
+        <v>0.20999999999999996</v>
       </c>
     </row>
   </sheetData>
